--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.18453101094236</v>
+        <v>1.314108</v>
       </c>
       <c r="N2">
-        <v>1.18453101094236</v>
+        <v>3.942324</v>
       </c>
       <c r="O2">
-        <v>0.05304315600371069</v>
+        <v>0.05768654525237047</v>
       </c>
       <c r="P2">
-        <v>0.05304315600371069</v>
+        <v>0.05768654525237048</v>
       </c>
       <c r="Q2">
-        <v>91.75759851656169</v>
+        <v>140.450009709684</v>
       </c>
       <c r="R2">
-        <v>91.75759851656169</v>
+        <v>1264.050087387156</v>
       </c>
       <c r="S2">
-        <v>0.006294487621683087</v>
+        <v>0.008703447724970368</v>
       </c>
       <c r="T2">
-        <v>0.006294487621683087</v>
+        <v>0.00870344772497037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.90092014966637</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N3">
-        <v>4.90092014966637</v>
+        <v>14.736649</v>
       </c>
       <c r="O3">
-        <v>0.2194626140295556</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="P3">
-        <v>0.2194626140295556</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="Q3">
-        <v>379.6411063118184</v>
+        <v>525.0107538442312</v>
       </c>
       <c r="R3">
-        <v>379.6411063118184</v>
+        <v>4725.09678459808</v>
       </c>
       <c r="S3">
-        <v>0.0260430338521828</v>
+        <v>0.03253402161079021</v>
       </c>
       <c r="T3">
-        <v>0.0260430338521828</v>
+        <v>0.03253402161079021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.388096791303731</v>
+        <v>0.0405</v>
       </c>
       <c r="N4">
-        <v>0.388096791303731</v>
+        <v>0.1215</v>
       </c>
       <c r="O4">
-        <v>0.01737892757175361</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="P4">
-        <v>0.01737892757175361</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="Q4">
-        <v>30.06323112949419</v>
+        <v>4.3285828815</v>
       </c>
       <c r="R4">
-        <v>30.06323112949419</v>
+        <v>38.9572459335</v>
       </c>
       <c r="S4">
-        <v>0.002062310253011291</v>
+        <v>0.0002682349037227534</v>
       </c>
       <c r="T4">
-        <v>0.002062310253011291</v>
+        <v>0.0002682349037227534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8579100567229</v>
+        <v>0.4069286666666667</v>
       </c>
       <c r="N5">
-        <v>15.8579100567229</v>
+        <v>1.220786</v>
       </c>
       <c r="O5">
-        <v>0.7101153023949801</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="P5">
-        <v>0.7101153023949801</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="Q5">
-        <v>1228.404939047502</v>
+        <v>43.49196198827044</v>
       </c>
       <c r="R5">
-        <v>1228.404939047502</v>
+        <v>391.4276578944339</v>
       </c>
       <c r="S5">
-        <v>0.08426745913422373</v>
+        <v>0.002695122758650907</v>
       </c>
       <c r="T5">
-        <v>0.08426745913422373</v>
+        <v>0.002695122758650907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.18453101094236</v>
+        <v>16.10639433333333</v>
       </c>
       <c r="N6">
-        <v>1.18453101094236</v>
+        <v>48.319183</v>
       </c>
       <c r="O6">
-        <v>0.05304315600371069</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="P6">
-        <v>0.05304315600371069</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="Q6">
-        <v>91.1735717145548</v>
+        <v>1721.428710961858</v>
       </c>
       <c r="R6">
-        <v>91.1735717145548</v>
+        <v>15492.85839865672</v>
       </c>
       <c r="S6">
-        <v>0.006254423915402675</v>
+        <v>0.1066740032919103</v>
       </c>
       <c r="T6">
-        <v>0.006254423915402675</v>
+        <v>0.1066740032919103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.90092014966637</v>
+        <v>1.314108</v>
       </c>
       <c r="N7">
-        <v>4.90092014966637</v>
+        <v>3.942324</v>
       </c>
       <c r="O7">
-        <v>0.2194626140295556</v>
+        <v>0.05768654525237047</v>
       </c>
       <c r="P7">
-        <v>0.2194626140295556</v>
+        <v>0.05768654525237048</v>
       </c>
       <c r="Q7">
-        <v>377.224733337654</v>
+        <v>101.492401977684</v>
       </c>
       <c r="R7">
-        <v>377.224733337654</v>
+        <v>913.4316177991559</v>
       </c>
       <c r="S7">
-        <v>0.02587727286866597</v>
+        <v>0.006289311171429177</v>
       </c>
       <c r="T7">
-        <v>0.02587727286866597</v>
+        <v>0.006289311171429179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.388096791303731</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N8">
-        <v>0.388096791303731</v>
+        <v>14.736649</v>
       </c>
       <c r="O8">
-        <v>0.01737892757175361</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="P8">
-        <v>0.01737892757175361</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="Q8">
-        <v>29.8718820421335</v>
+        <v>379.3848258316756</v>
       </c>
       <c r="R8">
-        <v>29.8718820421335</v>
+        <v>3414.463432485081</v>
       </c>
       <c r="S8">
-        <v>0.002049183880032003</v>
+        <v>0.02350983105019543</v>
       </c>
       <c r="T8">
-        <v>0.002049183880032003</v>
+        <v>0.02350983105019543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>15.8579100567229</v>
+        <v>0.0405</v>
       </c>
       <c r="N9">
-        <v>15.8579100567229</v>
+        <v>0.1215</v>
       </c>
       <c r="O9">
-        <v>0.7101153023949801</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="P9">
-        <v>0.7101153023949801</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="Q9">
-        <v>1220.586279669752</v>
+        <v>3.1279333815</v>
       </c>
       <c r="R9">
-        <v>1220.586279669752</v>
+        <v>28.1514004335</v>
       </c>
       <c r="S9">
-        <v>0.08373110622757564</v>
+        <v>0.0001938327005412658</v>
       </c>
       <c r="T9">
-        <v>0.08373110622757564</v>
+        <v>0.0001938327005412658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J10">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.18453101094236</v>
+        <v>0.4069286666666667</v>
       </c>
       <c r="N10">
-        <v>1.18453101094236</v>
+        <v>1.220786</v>
       </c>
       <c r="O10">
-        <v>0.05304315600371069</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="P10">
-        <v>0.05304315600371069</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="Q10">
-        <v>144.1710344555636</v>
+        <v>31.42829037915933</v>
       </c>
       <c r="R10">
-        <v>144.1710344555636</v>
+        <v>282.854613412434</v>
       </c>
       <c r="S10">
-        <v>0.009890001552536228</v>
+        <v>0.001947557589818681</v>
       </c>
       <c r="T10">
-        <v>0.009890001552536228</v>
+        <v>0.001947557589818681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J11">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.90092014966637</v>
+        <v>16.10639433333333</v>
       </c>
       <c r="N11">
-        <v>4.90092014966637</v>
+        <v>48.319183</v>
       </c>
       <c r="O11">
-        <v>0.2194626140295556</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="P11">
-        <v>0.2194626140295556</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="Q11">
-        <v>596.4982944595095</v>
+        <v>1243.943913353969</v>
       </c>
       <c r="R11">
-        <v>596.4982944595095</v>
+        <v>11195.49522018572</v>
       </c>
       <c r="S11">
-        <v>0.04091923929496437</v>
+        <v>0.07708508418796395</v>
       </c>
       <c r="T11">
-        <v>0.04091923929496437</v>
+        <v>0.07708508418796396</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H12">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I12">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J12">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.388096791303731</v>
+        <v>1.314108</v>
       </c>
       <c r="N12">
-        <v>0.388096791303731</v>
+        <v>3.942324</v>
       </c>
       <c r="O12">
-        <v>0.01737892757175361</v>
+        <v>0.05768654525237047</v>
       </c>
       <c r="P12">
-        <v>0.01737892757175361</v>
+        <v>0.05768654525237048</v>
       </c>
       <c r="Q12">
-        <v>47.23583878705777</v>
+        <v>179.607467862396</v>
       </c>
       <c r="R12">
-        <v>47.23583878705777</v>
+        <v>1616.467210761564</v>
       </c>
       <c r="S12">
-        <v>0.003240335485581475</v>
+        <v>0.01112996866846693</v>
       </c>
       <c r="T12">
-        <v>0.003240335485581475</v>
+        <v>0.01112996866846693</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H13">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I13">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J13">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.8579100567229</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N13">
-        <v>15.8579100567229</v>
+        <v>14.736649</v>
       </c>
       <c r="O13">
-        <v>0.7101153023949801</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="P13">
-        <v>0.7101153023949801</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="Q13">
-        <v>1930.089863466037</v>
+        <v>671.383734991571</v>
       </c>
       <c r="R13">
-        <v>1930.089863466037</v>
+        <v>6042.453614924139</v>
       </c>
       <c r="S13">
-        <v>0.1324024053673349</v>
+        <v>0.04160450578090349</v>
       </c>
       <c r="T13">
-        <v>0.1324024053673349</v>
+        <v>0.04160450578090349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H14">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I14">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J14">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.18453101094236</v>
+        <v>0.0405</v>
       </c>
       <c r="N14">
-        <v>1.18453101094236</v>
+        <v>0.1215</v>
       </c>
       <c r="O14">
-        <v>0.05304315600371069</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="P14">
-        <v>0.05304315600371069</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="Q14">
-        <v>166.2687882283591</v>
+        <v>5.535391648500001</v>
       </c>
       <c r="R14">
-        <v>166.2687882283591</v>
+        <v>49.8185248365</v>
       </c>
       <c r="S14">
-        <v>0.01140588731936736</v>
+        <v>0.0003430187861826508</v>
       </c>
       <c r="T14">
-        <v>0.01140588731936736</v>
+        <v>0.0003430187861826508</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H15">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I15">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J15">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.90092014966637</v>
+        <v>0.4069286666666667</v>
       </c>
       <c r="N15">
-        <v>4.90092014966637</v>
+        <v>1.220786</v>
       </c>
       <c r="O15">
-        <v>0.2194626140295556</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="P15">
-        <v>0.2194626140295556</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="Q15">
-        <v>687.9263159524218</v>
+        <v>55.61751958029401</v>
       </c>
       <c r="R15">
-        <v>687.9263159524218</v>
+        <v>500.557676222646</v>
       </c>
       <c r="S15">
-        <v>0.04719111823323278</v>
+        <v>0.003446522896368506</v>
       </c>
       <c r="T15">
-        <v>0.04719111823323278</v>
+        <v>0.003446522896368506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H16">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I16">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J16">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.388096791303731</v>
+        <v>16.10639433333333</v>
       </c>
       <c r="N16">
-        <v>0.388096791303731</v>
+        <v>48.319183</v>
       </c>
       <c r="O16">
-        <v>0.01737892757175361</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="P16">
-        <v>0.01737892757175361</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="Q16">
-        <v>54.47589181650028</v>
+        <v>2201.362979757557</v>
       </c>
       <c r="R16">
-        <v>54.47589181650028</v>
+        <v>19812.26681781801</v>
       </c>
       <c r="S16">
-        <v>0.003736996524132189</v>
+        <v>0.1364147119505957</v>
       </c>
       <c r="T16">
-        <v>0.003736996524132189</v>
+        <v>0.1364147119505957</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H17">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I17">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J17">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8579100567229</v>
+        <v>1.314108</v>
       </c>
       <c r="N17">
-        <v>15.8579100567229</v>
+        <v>3.942324</v>
       </c>
       <c r="O17">
-        <v>0.7101153023949801</v>
+        <v>0.05768654525237047</v>
       </c>
       <c r="P17">
-        <v>0.7101153023949801</v>
+        <v>0.05768654525237048</v>
       </c>
       <c r="Q17">
-        <v>2225.923563510595</v>
+        <v>188.516307545616</v>
       </c>
       <c r="R17">
-        <v>2225.923563510595</v>
+        <v>1696.646767910544</v>
       </c>
       <c r="S17">
-        <v>0.1526963275395796</v>
+        <v>0.01168203427980665</v>
       </c>
       <c r="T17">
-        <v>0.1526963275395796</v>
+        <v>0.01168203427980666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H18">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I18">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J18">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.18453101094236</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N18">
-        <v>1.18453101094236</v>
+        <v>14.736649</v>
       </c>
       <c r="O18">
-        <v>0.05304315600371069</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="P18">
-        <v>0.05304315600371069</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="Q18">
-        <v>229.9879412088316</v>
+        <v>704.6855243444714</v>
       </c>
       <c r="R18">
-        <v>229.9879412088316</v>
+        <v>6342.169719100243</v>
       </c>
       <c r="S18">
-        <v>0.01577696313416567</v>
+        <v>0.04366816090901673</v>
       </c>
       <c r="T18">
-        <v>0.01577696313416567</v>
+        <v>0.04366816090901673</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H19">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I19">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J19">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>4.90092014966637</v>
+        <v>0.0405</v>
       </c>
       <c r="N19">
-        <v>4.90092014966637</v>
+        <v>0.1215</v>
       </c>
       <c r="O19">
-        <v>0.2194626140295556</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="P19">
-        <v>0.2194626140295556</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="Q19">
-        <v>951.5601743123088</v>
+        <v>5.809956606</v>
       </c>
       <c r="R19">
-        <v>951.5601743123088</v>
+        <v>52.28960945399999</v>
       </c>
       <c r="S19">
-        <v>0.06527616061588998</v>
+        <v>0.0003600331086426455</v>
       </c>
       <c r="T19">
-        <v>0.06527616061588998</v>
+        <v>0.0003600331086426455</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H20">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I20">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J20">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.388096791303731</v>
+        <v>0.4069286666666667</v>
       </c>
       <c r="N20">
-        <v>0.388096791303731</v>
+        <v>1.220786</v>
       </c>
       <c r="O20">
-        <v>0.01737892757175361</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="P20">
-        <v>0.01737892757175361</v>
+        <v>0.01786330266930378</v>
       </c>
       <c r="Q20">
-        <v>75.35267645773945</v>
+        <v>58.3762443227351</v>
       </c>
       <c r="R20">
-        <v>75.35267645773945</v>
+        <v>525.386198904616</v>
       </c>
       <c r="S20">
-        <v>0.005169124921445302</v>
+        <v>0.003617476366810046</v>
       </c>
       <c r="T20">
-        <v>0.005169124921445302</v>
+        <v>0.003617476366810046</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H21">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I21">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J21">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.8579100567229</v>
+        <v>16.10639433333333</v>
       </c>
       <c r="N21">
-        <v>15.8579100567229</v>
+        <v>48.319183</v>
       </c>
       <c r="O21">
-        <v>0.7101153023949801</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="P21">
-        <v>0.7101153023949801</v>
+        <v>0.7070364426381672</v>
       </c>
       <c r="Q21">
-        <v>3078.963785776308</v>
+        <v>2310.55437421706</v>
       </c>
       <c r="R21">
-        <v>3078.963785776308</v>
+        <v>20794.98936795355</v>
       </c>
       <c r="S21">
-        <v>0.2112141092454747</v>
+        <v>0.1431811165643034</v>
       </c>
       <c r="T21">
-        <v>0.2112141092454747</v>
+        <v>0.1431811165643034</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H22">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I22">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J22">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.18453101094236</v>
+        <v>1.314108</v>
       </c>
       <c r="N22">
-        <v>1.18453101094236</v>
+        <v>3.942324</v>
       </c>
       <c r="O22">
-        <v>0.05304315600371069</v>
+        <v>0.05768654525237047</v>
       </c>
       <c r="P22">
-        <v>0.05304315600371069</v>
+        <v>0.05768654525237048</v>
       </c>
       <c r="Q22">
-        <v>49.8751883603378</v>
+        <v>260.9794974227519</v>
       </c>
       <c r="R22">
-        <v>49.8751883603378</v>
+        <v>2348.815476804768</v>
       </c>
       <c r="S22">
-        <v>0.003421392460555674</v>
+        <v>0.01617245465346057</v>
       </c>
       <c r="T22">
-        <v>0.003421392460555674</v>
+        <v>0.01617245465346057</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H23">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I23">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J23">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.90092014966637</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N23">
-        <v>4.90092014966637</v>
+        <v>14.736649</v>
       </c>
       <c r="O23">
-        <v>0.2194626140295556</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="P23">
-        <v>0.2194626140295556</v>
+        <v>0.2156358456095441</v>
       </c>
       <c r="Q23">
-        <v>206.3553535919031</v>
+        <v>975.5573742075742</v>
       </c>
       <c r="R23">
-        <v>206.3553535919031</v>
+        <v>8780.016367868167</v>
       </c>
       <c r="S23">
-        <v>0.01415578916461972</v>
+        <v>0.0604536277831211</v>
       </c>
       <c r="T23">
-        <v>0.01415578916461972</v>
+        <v>0.0604536277831211</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H24">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I24">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J24">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.388096791303731</v>
+        <v>0.0405</v>
       </c>
       <c r="N24">
-        <v>0.388096791303731</v>
+        <v>0.1215</v>
       </c>
       <c r="O24">
-        <v>0.01737892757175361</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="P24">
-        <v>0.01737892757175361</v>
+        <v>0.001777863830614382</v>
       </c>
       <c r="Q24">
-        <v>16.34098254035342</v>
+        <v>8.043227532</v>
       </c>
       <c r="R24">
-        <v>16.34098254035342</v>
+        <v>72.389047788</v>
       </c>
       <c r="S24">
-        <v>0.001120976507551348</v>
+        <v>0.0004984251016394034</v>
       </c>
       <c r="T24">
-        <v>0.001120976507551348</v>
+        <v>0.0004984251016394034</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H25">
+        <v>595.794632</v>
+      </c>
+      <c r="I25">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J25">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4069286666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.220786</v>
+      </c>
+      <c r="O25">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="P25">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="Q25">
+        <v>80.81530506897244</v>
+      </c>
+      <c r="R25">
+        <v>727.3377456207519</v>
+      </c>
+      <c r="S25">
+        <v>0.005007986717119019</v>
+      </c>
+      <c r="T25">
+        <v>0.005007986717119019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H26">
+        <v>595.794632</v>
+      </c>
+      <c r="I26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.10639433333333</v>
+      </c>
+      <c r="N26">
+        <v>48.319183</v>
+      </c>
+      <c r="O26">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="P26">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="Q26">
+        <v>3198.701094891739</v>
+      </c>
+      <c r="R26">
+        <v>28788.30985402565</v>
+      </c>
+      <c r="S26">
+        <v>0.1982180551268143</v>
+      </c>
+      <c r="T26">
+        <v>0.1982180551268143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="H25">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="I25">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="J25">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.8579100567229</v>
-      </c>
-      <c r="N25">
-        <v>15.8579100567229</v>
-      </c>
-      <c r="O25">
-        <v>0.7101153023949801</v>
-      </c>
-      <c r="P25">
-        <v>0.7101153023949801</v>
-      </c>
-      <c r="Q25">
-        <v>667.7041324997749</v>
-      </c>
-      <c r="R25">
-        <v>667.7041324997749</v>
-      </c>
-      <c r="S25">
-        <v>0.04580389488079167</v>
-      </c>
-      <c r="T25">
-        <v>0.04580389488079167</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H27">
+        <v>136.651993</v>
+      </c>
+      <c r="I27">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J27">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.314108</v>
+      </c>
+      <c r="N27">
+        <v>3.942324</v>
+      </c>
+      <c r="O27">
+        <v>0.05768654525237047</v>
+      </c>
+      <c r="P27">
+        <v>0.05768654525237048</v>
+      </c>
+      <c r="Q27">
+        <v>59.858492405748</v>
+      </c>
+      <c r="R27">
+        <v>538.726431651732</v>
+      </c>
+      <c r="S27">
+        <v>0.003709328754236764</v>
+      </c>
+      <c r="T27">
+        <v>0.003709328754236765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H28">
+        <v>136.651993</v>
+      </c>
+      <c r="I28">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J28">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.912216333333333</v>
+      </c>
+      <c r="N28">
+        <v>14.736649</v>
+      </c>
+      <c r="O28">
+        <v>0.2156358456095441</v>
+      </c>
+      <c r="P28">
+        <v>0.2156358456095441</v>
+      </c>
+      <c r="Q28">
+        <v>223.7547173323841</v>
+      </c>
+      <c r="R28">
+        <v>2013.792455991457</v>
+      </c>
+      <c r="S28">
+        <v>0.0138656984755171</v>
+      </c>
+      <c r="T28">
+        <v>0.0138656984755171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H29">
+        <v>136.651993</v>
+      </c>
+      <c r="I29">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J29">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.0405</v>
+      </c>
+      <c r="N29">
+        <v>0.1215</v>
+      </c>
+      <c r="O29">
+        <v>0.001777863830614382</v>
+      </c>
+      <c r="P29">
+        <v>0.001777863830614382</v>
+      </c>
+      <c r="Q29">
+        <v>1.8448019055</v>
+      </c>
+      <c r="R29">
+        <v>16.6032171495</v>
+      </c>
+      <c r="S29">
+        <v>0.0001143192298856631</v>
+      </c>
+      <c r="T29">
+        <v>0.0001143192298856631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H30">
+        <v>136.651993</v>
+      </c>
+      <c r="I30">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J30">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.4069286666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.220786</v>
+      </c>
+      <c r="O30">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="P30">
+        <v>0.01786330266930378</v>
+      </c>
+      <c r="Q30">
+        <v>18.53587110294422</v>
+      </c>
+      <c r="R30">
+        <v>166.822839926498</v>
+      </c>
+      <c r="S30">
+        <v>0.001148636340536618</v>
+      </c>
+      <c r="T30">
+        <v>0.001148636340536618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H31">
+        <v>136.651993</v>
+      </c>
+      <c r="I31">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J31">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.10639433333333</v>
+      </c>
+      <c r="N31">
+        <v>48.319183</v>
+      </c>
+      <c r="O31">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="P31">
+        <v>0.7070364426381672</v>
+      </c>
+      <c r="Q31">
+        <v>733.6569618979687</v>
+      </c>
+      <c r="R31">
+        <v>6602.912657081719</v>
+      </c>
+      <c r="S31">
+        <v>0.04546347151657962</v>
+      </c>
+      <c r="T31">
+        <v>0.04546347151657962</v>
       </c>
     </row>
   </sheetData>
